--- a/ProcessAuto/users.xlsx
+++ b/ProcessAuto/users.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ukwim\Documents\GitHub\Projects\ProcessAuto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7EE287E-DF50-4719-83A5-6BDB0444ADDB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCC994F8-D994-494C-95E5-600095FBE459}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
   <si>
     <t>Иванов</t>
   </si>
@@ -64,6 +64,48 @@
   </si>
   <si>
     <t>123456qQ!</t>
+  </si>
+  <si>
+    <t>Glekov@gmail.com</t>
+  </si>
+  <si>
+    <t>Glekovkirill@gmail.com</t>
+  </si>
+  <si>
+    <t>Глеков</t>
+  </si>
+  <si>
+    <t>Кирилл</t>
+  </si>
+  <si>
+    <t>Владиславович</t>
+  </si>
+  <si>
+    <t>Glekovkirilll@gmail.com</t>
+  </si>
+  <si>
+    <t>1246699h2T@</t>
+  </si>
+  <si>
+    <t>Uktrjd</t>
+  </si>
+  <si>
+    <t>Rbhbkk</t>
+  </si>
+  <si>
+    <t>Dkflbckfdjdbx</t>
+  </si>
+  <si>
+    <t>Щегольков</t>
+  </si>
+  <si>
+    <t>Матвей</t>
+  </si>
+  <si>
+    <t>Владимирович</t>
+  </si>
+  <si>
+    <t>realmatt@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -392,14 +434,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
+    <col min="1" max="1" width="14.578125" customWidth="1"/>
     <col min="3" max="3" width="20.26171875" customWidth="1"/>
     <col min="4" max="4" width="28.7890625" customWidth="1"/>
     <col min="5" max="5" width="23.05078125" customWidth="1"/>
@@ -456,11 +499,84 @@
         <v>12</v>
       </c>
     </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D1" r:id="rId1" xr:uid="{B2262D72-3580-43A3-AE6D-895DCDFCC8A8}"/>
     <hyperlink ref="D2" r:id="rId2" xr:uid="{D0DAC337-0BB5-467E-A54A-BB45DF7FFC72}"/>
     <hyperlink ref="D3" r:id="rId3" xr:uid="{FB6BB486-FCD4-48D9-B323-736CAF3E21ED}"/>
+    <hyperlink ref="D4" r:id="rId4" xr:uid="{5639F03E-8D5C-44DD-8B02-E5A23B155064}"/>
+    <hyperlink ref="D5" r:id="rId5" xr:uid="{29533D84-0CBD-42CA-BFDD-A5DAD21EB474}"/>
+    <hyperlink ref="D6" r:id="rId6" xr:uid="{5FFDE69F-07DF-4288-BAEA-2EEFB40DDDC7}"/>
+    <hyperlink ref="E6" r:id="rId7" xr:uid="{5B829AF5-CB7A-4357-8A53-C9B3C23CDF40}"/>
+    <hyperlink ref="D7" r:id="rId8" xr:uid="{C59C1E31-A8DB-4126-961D-C632A2503B63}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ProcessAuto/users.xlsx
+++ b/ProcessAuto/users.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ukwim\Documents\GitHub\Projects\ProcessAuto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCC994F8-D994-494C-95E5-600095FBE459}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB038481-AA5B-4725-BA8A-A61CD021BBC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="35">
   <si>
     <t>Иванов</t>
   </si>
@@ -106,6 +106,30 @@
   </si>
   <si>
     <t>realmatt@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Заварзин </t>
+  </si>
+  <si>
+    <t>Артём</t>
+  </si>
+  <si>
+    <t>Евгеньевич</t>
+  </si>
+  <si>
+    <t>zavarzin@gmail.com</t>
+  </si>
+  <si>
+    <t>Полех</t>
+  </si>
+  <si>
+    <t>Павел</t>
+  </si>
+  <si>
+    <t>Андреевич</t>
+  </si>
+  <si>
+    <t>poleh@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -434,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -567,6 +591,40 @@
         <v>12</v>
       </c>
     </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D1" r:id="rId1" xr:uid="{B2262D72-3580-43A3-AE6D-895DCDFCC8A8}"/>
@@ -577,6 +635,8 @@
     <hyperlink ref="D6" r:id="rId6" xr:uid="{5FFDE69F-07DF-4288-BAEA-2EEFB40DDDC7}"/>
     <hyperlink ref="E6" r:id="rId7" xr:uid="{5B829AF5-CB7A-4357-8A53-C9B3C23CDF40}"/>
     <hyperlink ref="D7" r:id="rId8" xr:uid="{C59C1E31-A8DB-4126-961D-C632A2503B63}"/>
+    <hyperlink ref="D8" r:id="rId9" xr:uid="{911CD7D3-4EAE-41D4-9253-4296F40A744C}"/>
+    <hyperlink ref="D9" r:id="rId10" xr:uid="{12D1B53A-AA80-4BDE-A0AB-82B91624AA15}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
